--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3503714073693</v>
+        <v>19.483383</v>
       </c>
       <c r="H2">
-        <v>16.3503714073693</v>
+        <v>58.450149</v>
       </c>
       <c r="I2">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J2">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.3503714073693</v>
+        <v>19.483383</v>
       </c>
       <c r="N2">
-        <v>16.3503714073693</v>
+        <v>58.450149</v>
       </c>
       <c r="O2">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="P2">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="Q2">
-        <v>267.3346451589195</v>
+        <v>379.602213124689</v>
       </c>
       <c r="R2">
-        <v>267.3346451589195</v>
+        <v>3416.419918122202</v>
       </c>
       <c r="S2">
-        <v>0.244604296147105</v>
+        <v>0.2638320990497617</v>
       </c>
       <c r="T2">
-        <v>0.244604296147105</v>
+        <v>0.2638320990497617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3503714073693</v>
+        <v>19.483383</v>
       </c>
       <c r="H3">
-        <v>16.3503714073693</v>
+        <v>58.450149</v>
       </c>
       <c r="I3">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J3">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24862926889512</v>
+        <v>2.372561</v>
       </c>
       <c r="N3">
-        <v>2.24862926889512</v>
+        <v>7.117683</v>
       </c>
       <c r="O3">
-        <v>0.06801775245635447</v>
+        <v>0.06254849086037796</v>
       </c>
       <c r="P3">
-        <v>0.06801775245635447</v>
+        <v>0.06254849086037795</v>
       </c>
       <c r="Q3">
-        <v>36.7659237039165</v>
+        <v>46.225514653863</v>
       </c>
       <c r="R3">
-        <v>36.7659237039165</v>
+        <v>416.0296318847671</v>
       </c>
       <c r="S3">
-        <v>0.03363987067388377</v>
+        <v>0.03212777517916687</v>
       </c>
       <c r="T3">
-        <v>0.03363987067388377</v>
+        <v>0.03212777517916687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,433 +649,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3503714073693</v>
+        <v>19.483383</v>
       </c>
       <c r="H4">
-        <v>16.3503714073693</v>
+        <v>58.450149</v>
       </c>
       <c r="I4">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J4">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>14.4604461253337</v>
+        <v>0.004736</v>
       </c>
       <c r="N4">
-        <v>14.4604461253337</v>
+        <v>0.014208</v>
       </c>
       <c r="O4">
-        <v>0.4374073834966493</v>
+        <v>0.0001248564958771345</v>
       </c>
       <c r="P4">
-        <v>0.4374073834966493</v>
+        <v>0.0001248564958771344</v>
       </c>
       <c r="Q4">
-        <v>236.4336648654603</v>
+        <v>0.09227330188799999</v>
       </c>
       <c r="R4">
-        <v>236.4336648654603</v>
+        <v>0.8304597169919999</v>
       </c>
       <c r="S4">
-        <v>0.2163306972260078</v>
+        <v>6.413202579345032E-05</v>
       </c>
       <c r="T4">
-        <v>0.2163306972260078</v>
+        <v>6.41320257934503E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24862926889512</v>
+        <v>19.483383</v>
       </c>
       <c r="H5">
-        <v>2.24862926889512</v>
+        <v>58.450149</v>
       </c>
       <c r="I5">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J5">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>16.3503714073693</v>
+        <v>0.02747066666666667</v>
       </c>
       <c r="N5">
-        <v>16.3503714073693</v>
+        <v>0.082412</v>
       </c>
       <c r="O5">
-        <v>0.4945748640469965</v>
+        <v>0.0007242168875440882</v>
       </c>
       <c r="P5">
-        <v>0.4945748640469965</v>
+        <v>0.0007242168875440881</v>
       </c>
       <c r="Q5">
-        <v>36.7659237039165</v>
+        <v>0.5352215199320001</v>
       </c>
       <c r="R5">
-        <v>36.7659237039165</v>
+        <v>4.816993679388</v>
       </c>
       <c r="S5">
-        <v>0.03363987067388377</v>
+        <v>0.0003719910268644304</v>
       </c>
       <c r="T5">
-        <v>0.03363987067388377</v>
+        <v>0.0003719910268644304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24862926889512</v>
+        <v>19.483383</v>
       </c>
       <c r="H6">
-        <v>2.24862926889512</v>
+        <v>58.450149</v>
       </c>
       <c r="I6">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J6">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.24862926889512</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N6">
-        <v>2.24862926889512</v>
+        <v>0.173351</v>
       </c>
       <c r="O6">
-        <v>0.06801775245635447</v>
+        <v>0.001523367005686735</v>
       </c>
       <c r="P6">
-        <v>0.06801775245635447</v>
+        <v>0.001523367005686735</v>
       </c>
       <c r="Q6">
-        <v>5.056333588931802</v>
+        <v>1.125821308811</v>
       </c>
       <c r="R6">
-        <v>5.056333588931802</v>
+        <v>10.132391779299</v>
       </c>
       <c r="S6">
-        <v>0.004626414649213914</v>
+        <v>0.000782471199558024</v>
       </c>
       <c r="T6">
-        <v>0.004626414649213914</v>
+        <v>0.000782471199558024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24862926889512</v>
+        <v>19.483383</v>
       </c>
       <c r="H7">
-        <v>2.24862926889512</v>
+        <v>58.450149</v>
       </c>
       <c r="I7">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="J7">
-        <v>0.06801775245635447</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4604461253337</v>
+        <v>15.98561233333333</v>
       </c>
       <c r="N7">
-        <v>14.4604461253337</v>
+        <v>47.956837</v>
       </c>
       <c r="O7">
-        <v>0.4374073834966493</v>
+        <v>0.4214331799810606</v>
       </c>
       <c r="P7">
-        <v>0.4374073834966493</v>
+        <v>0.4214331799810606</v>
       </c>
       <c r="Q7">
-        <v>32.51618239870639</v>
+        <v>311.453807579857</v>
       </c>
       <c r="R7">
-        <v>32.51618239870639</v>
+        <v>2803.084268218713</v>
       </c>
       <c r="S7">
-        <v>0.02975146713325679</v>
+        <v>0.2164674202883089</v>
       </c>
       <c r="T7">
-        <v>0.02975146713325679</v>
+        <v>0.2164674202883089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.4604461253337</v>
+        <v>2.372561</v>
       </c>
       <c r="H8">
-        <v>14.4604461253337</v>
+        <v>7.117683</v>
       </c>
       <c r="I8">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037796</v>
       </c>
       <c r="J8">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3503714073693</v>
+        <v>19.483383</v>
       </c>
       <c r="N8">
-        <v>16.3503714073693</v>
+        <v>58.450149</v>
       </c>
       <c r="O8">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="P8">
-        <v>0.4945748640469965</v>
+        <v>0.5136458887694534</v>
       </c>
       <c r="Q8">
-        <v>236.4336648654603</v>
+        <v>46.225514653863</v>
       </c>
       <c r="R8">
-        <v>236.4336648654603</v>
+        <v>416.0296318847671</v>
       </c>
       <c r="S8">
-        <v>0.2163306972260078</v>
+        <v>0.03212777517916687</v>
       </c>
       <c r="T8">
-        <v>0.2163306972260078</v>
+        <v>0.03212777517916687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.4604461253337</v>
+        <v>2.372561</v>
       </c>
       <c r="H9">
-        <v>14.4604461253337</v>
+        <v>7.117683</v>
       </c>
       <c r="I9">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037796</v>
       </c>
       <c r="J9">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24862926889512</v>
+        <v>2.372561</v>
       </c>
       <c r="N9">
-        <v>2.24862926889512</v>
+        <v>7.117683</v>
       </c>
       <c r="O9">
-        <v>0.06801775245635447</v>
+        <v>0.06254849086037796</v>
       </c>
       <c r="P9">
-        <v>0.06801775245635447</v>
+        <v>0.06254849086037795</v>
       </c>
       <c r="Q9">
-        <v>32.51618239870639</v>
+        <v>5.629045698721001</v>
       </c>
       <c r="R9">
-        <v>32.51618239870639</v>
+        <v>50.66141128848901</v>
       </c>
       <c r="S9">
-        <v>0.02975146713325679</v>
+        <v>0.003912313708910786</v>
       </c>
       <c r="T9">
-        <v>0.02975146713325679</v>
+        <v>0.003912313708910784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.4604461253337</v>
+        <v>2.372561</v>
       </c>
       <c r="H10">
-        <v>14.4604461253337</v>
+        <v>7.117683</v>
       </c>
       <c r="I10">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037796</v>
       </c>
       <c r="J10">
-        <v>0.4374073834966493</v>
+        <v>0.06254849086037795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>14.4604461253337</v>
+        <v>0.004736</v>
       </c>
       <c r="N10">
-        <v>14.4604461253337</v>
+        <v>0.014208</v>
       </c>
       <c r="O10">
-        <v>0.4374073834966493</v>
+        <v>0.0001248564958771345</v>
       </c>
       <c r="P10">
-        <v>0.4374073834966493</v>
+        <v>0.0001248564958771344</v>
       </c>
       <c r="Q10">
-        <v>209.1045021436784</v>
+        <v>0.011236448896</v>
       </c>
       <c r="R10">
-        <v>209.1045021436784</v>
+        <v>0.101128040064</v>
       </c>
       <c r="S10">
-        <v>0.1913252191373848</v>
+        <v>7.809585391229763E-06</v>
       </c>
       <c r="T10">
-        <v>0.1913252191373848</v>
+        <v>7.809585391229759E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.372561</v>
+      </c>
+      <c r="H11">
+        <v>7.117683</v>
+      </c>
+      <c r="I11">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="J11">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.082412</v>
+      </c>
+      <c r="O11">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="P11">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="Q11">
+        <v>0.06517583237733333</v>
+      </c>
+      <c r="R11">
+        <v>0.586582491396</v>
+      </c>
+      <c r="S11">
+        <v>4.529867337148278E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.529867337148276E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.372561</v>
+      </c>
+      <c r="H12">
+        <v>7.117683</v>
+      </c>
+      <c r="I12">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="J12">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.173351</v>
+      </c>
+      <c r="O12">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="P12">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="Q12">
+        <v>0.1370952739703334</v>
+      </c>
+      <c r="R12">
+        <v>1.233857465733</v>
+      </c>
+      <c r="S12">
+        <v>9.52843072321981E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.528430723219807E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.372561</v>
+      </c>
+      <c r="H13">
+        <v>7.117683</v>
+      </c>
+      <c r="I13">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="J13">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="N13">
+        <v>47.956837</v>
+      </c>
+      <c r="O13">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="P13">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="Q13">
+        <v>37.92684038318567</v>
+      </c>
+      <c r="R13">
+        <v>341.341563448671</v>
+      </c>
+      <c r="S13">
+        <v>0.02636000940630539</v>
+      </c>
+      <c r="T13">
+        <v>0.02636000940630538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.004736</v>
+      </c>
+      <c r="H14">
+        <v>0.014208</v>
+      </c>
+      <c r="I14">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J14">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.483383</v>
+      </c>
+      <c r="N14">
+        <v>58.450149</v>
+      </c>
+      <c r="O14">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="P14">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="Q14">
+        <v>0.09227330188799999</v>
+      </c>
+      <c r="R14">
+        <v>0.8304597169919999</v>
+      </c>
+      <c r="S14">
+        <v>6.413202579345032E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.41320257934503E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.004736</v>
+      </c>
+      <c r="H15">
+        <v>0.014208</v>
+      </c>
+      <c r="I15">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J15">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.372561</v>
+      </c>
+      <c r="N15">
+        <v>7.117683</v>
+      </c>
+      <c r="O15">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="P15">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="Q15">
+        <v>0.011236448896</v>
+      </c>
+      <c r="R15">
+        <v>0.101128040064</v>
+      </c>
+      <c r="S15">
+        <v>7.809585391229763E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.809585391229759E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.004736</v>
+      </c>
+      <c r="H16">
+        <v>0.014208</v>
+      </c>
+      <c r="I16">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J16">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.004736</v>
+      </c>
+      <c r="N16">
+        <v>0.014208</v>
+      </c>
+      <c r="O16">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="P16">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="Q16">
+        <v>2.2429696E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.0002018672639999999</v>
+      </c>
+      <c r="S16">
+        <v>1.558914456271689E-08</v>
+      </c>
+      <c r="T16">
+        <v>1.558914456271689E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.004736</v>
+      </c>
+      <c r="H17">
+        <v>0.014208</v>
+      </c>
+      <c r="I17">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J17">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.082412</v>
+      </c>
+      <c r="O17">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="P17">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="Q17">
+        <v>0.0001301010773333333</v>
+      </c>
+      <c r="R17">
+        <v>0.001170909696</v>
+      </c>
+      <c r="S17">
+        <v>9.042318283379959E-08</v>
+      </c>
+      <c r="T17">
+        <v>9.042318283379957E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.004736</v>
+      </c>
+      <c r="H18">
+        <v>0.014208</v>
+      </c>
+      <c r="I18">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J18">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.173351</v>
+      </c>
+      <c r="O18">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="P18">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002736634453333334</v>
+      </c>
+      <c r="R18">
+        <v>0.002462971008</v>
+      </c>
+      <c r="S18">
+        <v>1.902022662648885E-07</v>
+      </c>
+      <c r="T18">
+        <v>1.902022662648885E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.004736</v>
+      </c>
+      <c r="H19">
+        <v>0.014208</v>
+      </c>
+      <c r="I19">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="J19">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="N19">
+        <v>47.956837</v>
+      </c>
+      <c r="O19">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="P19">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="Q19">
+        <v>0.07570786001066666</v>
+      </c>
+      <c r="R19">
+        <v>0.681370740096</v>
+      </c>
+      <c r="S19">
+        <v>5.261867009879296E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.261867009879294E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.082412</v>
+      </c>
+      <c r="I20">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J20">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.483383</v>
+      </c>
+      <c r="N20">
+        <v>58.450149</v>
+      </c>
+      <c r="O20">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="P20">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="Q20">
+        <v>0.5352215199320001</v>
+      </c>
+      <c r="R20">
+        <v>4.816993679388</v>
+      </c>
+      <c r="S20">
+        <v>0.0003719910268644304</v>
+      </c>
+      <c r="T20">
+        <v>0.0003719910268644304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.082412</v>
+      </c>
+      <c r="I21">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J21">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.372561</v>
+      </c>
+      <c r="N21">
+        <v>7.117683</v>
+      </c>
+      <c r="O21">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="P21">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="Q21">
+        <v>0.06517583237733333</v>
+      </c>
+      <c r="R21">
+        <v>0.586582491396</v>
+      </c>
+      <c r="S21">
+        <v>4.529867337148278E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.529867337148276E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.082412</v>
+      </c>
+      <c r="I22">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J22">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.004736</v>
+      </c>
+      <c r="N22">
+        <v>0.014208</v>
+      </c>
+      <c r="O22">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="P22">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="Q22">
+        <v>0.0001301010773333333</v>
+      </c>
+      <c r="R22">
+        <v>0.001170909696</v>
+      </c>
+      <c r="S22">
+        <v>9.042318283379959E-08</v>
+      </c>
+      <c r="T22">
+        <v>9.042318283379957E-08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.082412</v>
+      </c>
+      <c r="I23">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J23">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.082412</v>
+      </c>
+      <c r="O23">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="P23">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="Q23">
+        <v>0.0007546375271111111</v>
+      </c>
+      <c r="R23">
+        <v>0.006791737744</v>
+      </c>
+      <c r="S23">
+        <v>5.244901002040465E-07</v>
+      </c>
+      <c r="T23">
+        <v>5.244901002040463E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.082412</v>
+      </c>
+      <c r="I24">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J24">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.173351</v>
+      </c>
+      <c r="O24">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="P24">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="Q24">
+        <v>0.001587355845777778</v>
+      </c>
+      <c r="R24">
+        <v>0.014286202612</v>
+      </c>
+      <c r="S24">
+        <v>1.103248111445805E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.103248111445804E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.082412</v>
+      </c>
+      <c r="I25">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="J25">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="N25">
+        <v>47.956837</v>
+      </c>
+      <c r="O25">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="P25">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="Q25">
+        <v>0.4391354278715556</v>
+      </c>
+      <c r="R25">
+        <v>3.952218850844</v>
+      </c>
+      <c r="S25">
+        <v>0.0003052090259136912</v>
+      </c>
+      <c r="T25">
+        <v>0.0003052090259136912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.173351</v>
+      </c>
+      <c r="I26">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J26">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.483383</v>
+      </c>
+      <c r="N26">
+        <v>58.450149</v>
+      </c>
+      <c r="O26">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="P26">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="Q26">
+        <v>1.125821308811</v>
+      </c>
+      <c r="R26">
+        <v>10.132391779299</v>
+      </c>
+      <c r="S26">
+        <v>0.000782471199558024</v>
+      </c>
+      <c r="T26">
+        <v>0.000782471199558024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.173351</v>
+      </c>
+      <c r="I27">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J27">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.372561</v>
+      </c>
+      <c r="N27">
+        <v>7.117683</v>
+      </c>
+      <c r="O27">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="P27">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="Q27">
+        <v>0.1370952739703334</v>
+      </c>
+      <c r="R27">
+        <v>1.233857465733</v>
+      </c>
+      <c r="S27">
+        <v>9.52843072321981E-05</v>
+      </c>
+      <c r="T27">
+        <v>9.528430723219807E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.173351</v>
+      </c>
+      <c r="I28">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J28">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.004736</v>
+      </c>
+      <c r="N28">
+        <v>0.014208</v>
+      </c>
+      <c r="O28">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="P28">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="Q28">
+        <v>0.0002736634453333334</v>
+      </c>
+      <c r="R28">
+        <v>0.002462971008</v>
+      </c>
+      <c r="S28">
+        <v>1.902022662648885E-07</v>
+      </c>
+      <c r="T28">
+        <v>1.902022662648885E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.173351</v>
+      </c>
+      <c r="I29">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J29">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.082412</v>
+      </c>
+      <c r="O29">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="P29">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="Q29">
+        <v>0.001587355845777778</v>
+      </c>
+      <c r="R29">
+        <v>0.014286202612</v>
+      </c>
+      <c r="S29">
+        <v>1.103248111445805E-06</v>
+      </c>
+      <c r="T29">
+        <v>1.103248111445804E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.173351</v>
+      </c>
+      <c r="I30">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J30">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.173351</v>
+      </c>
+      <c r="O30">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="P30">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="Q30">
+        <v>0.003338952133444445</v>
+      </c>
+      <c r="R30">
+        <v>0.030050569201</v>
+      </c>
+      <c r="S30">
+        <v>2.32064703401497E-06</v>
+      </c>
+      <c r="T30">
+        <v>2.32064703401497E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.173351</v>
+      </c>
+      <c r="I31">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="J31">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="N31">
+        <v>47.956837</v>
+      </c>
+      <c r="O31">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="P31">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="Q31">
+        <v>0.923707294531889</v>
+      </c>
+      <c r="R31">
+        <v>8.313365650787</v>
+      </c>
+      <c r="S31">
+        <v>0.0006419974014847873</v>
+      </c>
+      <c r="T31">
+        <v>0.0006419974014847872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H32">
+        <v>47.956837</v>
+      </c>
+      <c r="I32">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J32">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>19.483383</v>
+      </c>
+      <c r="N32">
+        <v>58.450149</v>
+      </c>
+      <c r="O32">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="P32">
+        <v>0.5136458887694534</v>
+      </c>
+      <c r="Q32">
+        <v>311.453807579857</v>
+      </c>
+      <c r="R32">
+        <v>2803.084268218713</v>
+      </c>
+      <c r="S32">
+        <v>0.2164674202883089</v>
+      </c>
+      <c r="T32">
+        <v>0.2164674202883089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H33">
+        <v>47.956837</v>
+      </c>
+      <c r="I33">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J33">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.372561</v>
+      </c>
+      <c r="N33">
+        <v>7.117683</v>
+      </c>
+      <c r="O33">
+        <v>0.06254849086037796</v>
+      </c>
+      <c r="P33">
+        <v>0.06254849086037795</v>
+      </c>
+      <c r="Q33">
+        <v>37.92684038318567</v>
+      </c>
+      <c r="R33">
+        <v>341.341563448671</v>
+      </c>
+      <c r="S33">
+        <v>0.02636000940630539</v>
+      </c>
+      <c r="T33">
+        <v>0.02636000940630538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H34">
+        <v>47.956837</v>
+      </c>
+      <c r="I34">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J34">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.004736</v>
+      </c>
+      <c r="N34">
+        <v>0.014208</v>
+      </c>
+      <c r="O34">
+        <v>0.0001248564958771345</v>
+      </c>
+      <c r="P34">
+        <v>0.0001248564958771344</v>
+      </c>
+      <c r="Q34">
+        <v>0.07570786001066666</v>
+      </c>
+      <c r="R34">
+        <v>0.681370740096</v>
+      </c>
+      <c r="S34">
+        <v>5.261867009879296E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.261867009879294E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H35">
+        <v>47.956837</v>
+      </c>
+      <c r="I35">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J35">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.02747066666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.082412</v>
+      </c>
+      <c r="O35">
+        <v>0.0007242168875440882</v>
+      </c>
+      <c r="P35">
+        <v>0.0007242168875440881</v>
+      </c>
+      <c r="Q35">
+        <v>0.4391354278715556</v>
+      </c>
+      <c r="R35">
+        <v>3.952218850844</v>
+      </c>
+      <c r="S35">
+        <v>0.0003052090259136912</v>
+      </c>
+      <c r="T35">
+        <v>0.0003052090259136912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H36">
+        <v>47.956837</v>
+      </c>
+      <c r="I36">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J36">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.05778366666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.173351</v>
+      </c>
+      <c r="O36">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="P36">
+        <v>0.001523367005686735</v>
+      </c>
+      <c r="Q36">
+        <v>0.923707294531889</v>
+      </c>
+      <c r="R36">
+        <v>8.313365650787</v>
+      </c>
+      <c r="S36">
+        <v>0.0006419974014847873</v>
+      </c>
+      <c r="T36">
+        <v>0.0006419974014847872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="H37">
+        <v>47.956837</v>
+      </c>
+      <c r="I37">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="J37">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.98561233333333</v>
+      </c>
+      <c r="N37">
+        <v>47.956837</v>
+      </c>
+      <c r="O37">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="P37">
+        <v>0.4214331799810606</v>
+      </c>
+      <c r="Q37">
+        <v>255.5398016716188</v>
+      </c>
+      <c r="R37">
+        <v>2299.858215044569</v>
+      </c>
+      <c r="S37">
+        <v>0.177605925188949</v>
+      </c>
+      <c r="T37">
+        <v>0.177605925188949</v>
       </c>
     </row>
   </sheetData>
